--- a/seguimiento/ProduccionDigital/SegDigital_CN_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CN_06_02_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="181" windowWidth="20733" windowHeight="9537"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -237,6 +232,36 @@
   </si>
   <si>
     <t>Evaluaciòn</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK SIN CAMBIOS</t>
+  </si>
+  <si>
+    <t>El cambio a realizar ya esta hecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cambio a realizar no es posible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK Sin cambios</t>
+  </si>
+  <si>
+    <t>OK sin cambios</t>
+  </si>
+  <si>
+    <t>INCOMPLETO MUCHA INFO</t>
+  </si>
+  <si>
+    <t>OK PERO AL HACER LA PRUEBA NO FUNCIONA</t>
+  </si>
+  <si>
+    <t>Problema al cargar Not Found, es un Diaporama</t>
+  </si>
+  <si>
+    <t>OK Problemas con greco</t>
   </si>
 </sst>
 </file>
@@ -371,7 +396,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,6 +445,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -720,25 +748,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="12" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.86328125" style="1"/>
+    <col min="10" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -747,7 +775,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -793,39 +821,45 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="20">
+      <c r="F4" s="21">
         <v>42109.430555555555</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>42109.434027777781</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>42109.4375</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="I4" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J4" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K4" s="13">
+        <v>42127</v>
+      </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
@@ -833,17 +867,23 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J5" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K5" s="13">
+        <v>42127</v>
+      </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M5" s="22"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -851,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>47</v>
@@ -859,25 +899,31 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J6" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K6" s="13">
+        <v>42127</v>
+      </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M6" s="22"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>42</v>
+      <c r="C7" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>39</v>
@@ -885,25 +931,31 @@
       <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J7" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K7" s="13">
+        <v>42127</v>
+      </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M7" s="22"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>42</v>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>43</v>
@@ -911,25 +963,31 @@
       <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J8" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K8" s="13">
+        <v>42127</v>
+      </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M8" s="22"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>42</v>
+      <c r="C9" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>43</v>
@@ -937,25 +995,31 @@
       <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J9" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K9" s="13">
+        <v>42127</v>
+      </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M9" s="22"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
+      <c r="C10" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>43</v>
@@ -963,25 +1027,31 @@
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J10" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K10" s="13">
+        <v>42127</v>
+      </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M10" s="22"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>42</v>
+      <c r="C11" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>39</v>
@@ -989,25 +1059,31 @@
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J11" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K11" s="13">
+        <v>42127</v>
+      </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M11" s="22"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>42</v>
+      <c r="C12" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>39</v>
@@ -1015,25 +1091,31 @@
       <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J12" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K12" s="13">
+        <v>42127</v>
+      </c>
       <c r="L12" s="13"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M12" s="22"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>42</v>
+      <c r="C13" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>43</v>
@@ -1041,25 +1123,31 @@
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J13" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K13" s="13">
+        <v>42127</v>
+      </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M13" s="22"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>42</v>
+      <c r="C14" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>43</v>
@@ -1067,25 +1155,31 @@
       <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J14" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K14" s="13">
+        <v>42127</v>
+      </c>
       <c r="L14" s="13"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M14" s="22"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
+      <c r="C15" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>43</v>
@@ -1093,17 +1187,23 @@
       <c r="E15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="9"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J15" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K15" s="13">
+        <v>42127</v>
+      </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M15" s="22"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1211,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>43</v>
@@ -1119,17 +1219,23 @@
       <c r="E16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="9"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J16" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K16" s="13">
+        <v>42127</v>
+      </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M16" s="22"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1243,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>43</v>
@@ -1145,17 +1251,23 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J17" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K17" s="13">
+        <v>42127</v>
+      </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M17" s="22"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>43</v>
@@ -1171,17 +1283,23 @@
       <c r="E18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J18" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K18" s="13">
+        <v>42127</v>
+      </c>
       <c r="L18" s="13"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M18" s="22"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1307,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>60</v>
@@ -1197,17 +1315,23 @@
       <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="9"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J19" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K19" s="13">
+        <v>42127</v>
+      </c>
       <c r="L19" s="9"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M19" s="22"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1339,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>60</v>
@@ -1223,17 +1347,23 @@
       <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="9"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J20" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K20" s="13">
+        <v>42127</v>
+      </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M20" s="22"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1371,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>60</v>
@@ -1249,17 +1379,23 @@
       <c r="E21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J21" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K21" s="13">
+        <v>42127</v>
+      </c>
       <c r="L21" s="13"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M21" s="22"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1403,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>60</v>
@@ -1275,17 +1411,23 @@
       <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="9"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J22" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K22" s="13">
+        <v>42127</v>
+      </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M22" s="22"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1435,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>60</v>
@@ -1301,25 +1443,31 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="9"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J23" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K23" s="13">
+        <v>42127</v>
+      </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M23" s="22"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>42</v>
+      <c r="C24" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>60</v>
@@ -1327,17 +1475,23 @@
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J24" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K24" s="13">
+        <v>42127</v>
+      </c>
       <c r="L24" s="13"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M24" s="22"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1499,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>60</v>
@@ -1353,17 +1507,23 @@
       <c r="E25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="9"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J25" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K25" s="13">
+        <v>42127</v>
+      </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M25" s="22"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1531,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>60</v>
@@ -1379,25 +1539,31 @@
       <c r="E26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J26" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K26" s="13">
+        <v>42127</v>
+      </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M26" s="22"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>42</v>
+      <c r="C27" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>39</v>
@@ -1405,17 +1571,23 @@
       <c r="E27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J27" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K27" s="13">
+        <v>42127</v>
+      </c>
       <c r="L27" s="9"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="17"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M27" s="22"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
@@ -1423,7 +1595,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>39</v>
@@ -1431,15 +1603,21 @@
       <c r="E28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="13">
+        <v>42127</v>
+      </c>
+      <c r="J28" s="13">
+        <v>42127</v>
+      </c>
+      <c r="K28" s="13">
+        <v>42127</v>
+      </c>
       <c r="L28" s="9"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="17"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
